--- a/data/raw/maine_raw_2024.xlsx
+++ b/data/raw/maine_raw_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699FCD7A-8322-E241-8ACB-139DA7D4A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016EC56-19F5-4947-A597-E53B349AE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20480" xr2:uid="{7852961B-4A26-6745-BB80-356E63132559}"/>
   </bookViews>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +250,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +670,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="O1" sqref="O1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +734,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -778,8 +784,8 @@
       <c r="N2" s="8">
         <v>427.4</v>
       </c>
-      <c r="O2" s="8">
-        <v>4.6772684750000001E-2</v>
+      <c r="O2" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P2">
         <v>20.399999999999999</v>
@@ -828,8 +834,8 @@
       <c r="N3" s="8">
         <v>263.3</v>
       </c>
-      <c r="O3" s="8">
-        <v>0.45368620040000002</v>
+      <c r="O3" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P3">
         <v>19.5</v>
@@ -878,8 +884,8 @@
       <c r="N4" s="8">
         <v>464.6</v>
       </c>
-      <c r="O4" s="8">
-        <v>1.2959422140000001</v>
+      <c r="O4" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P4">
         <v>21</v>
@@ -928,8 +934,8 @@
       <c r="N5" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="O5" s="8">
-        <v>0.48899755499999997</v>
+      <c r="O5" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P5">
         <v>17.3</v>
@@ -978,8 +984,8 @@
       <c r="N6" s="8">
         <v>384</v>
       </c>
-      <c r="O6" s="8">
-        <v>0.38910505839999998</v>
+      <c r="O6" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P6">
         <v>20.8</v>
@@ -1028,8 +1034,8 @@
       <c r="N7" s="8">
         <v>245.5</v>
       </c>
-      <c r="O7" s="8">
-        <v>2.307998408</v>
+      <c r="O7" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P7">
         <v>19.2</v>
@@ -1078,8 +1084,8 @@
       <c r="N8" s="8">
         <v>341.2</v>
       </c>
-      <c r="O8" s="8">
-        <v>1.6147635520000001</v>
+      <c r="O8" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P8">
         <v>20.8</v>
@@ -1128,8 +1134,8 @@
       <c r="N9" s="8">
         <v>239.5</v>
       </c>
-      <c r="O9" s="8">
-        <v>0.82815734990000001</v>
+      <c r="O9" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P9">
         <v>18</v>
@@ -1178,8 +1184,8 @@
       <c r="N10" s="8">
         <v>439.9</v>
       </c>
-      <c r="O10" s="8">
-        <v>0.38496376809999999</v>
+      <c r="O10" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P10">
         <v>18.600000000000001</v>
@@ -1228,8 +1234,8 @@
       <c r="N11" s="8">
         <v>415.5</v>
       </c>
-      <c r="O11" s="8">
-        <v>0.66937604589999999</v>
+      <c r="O11" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P11">
         <v>19.3</v>
@@ -1278,8 +1284,8 @@
       <c r="N12" s="8">
         <v>190.9</v>
       </c>
-      <c r="O12" s="8">
-        <v>1.597938144</v>
+      <c r="O12" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P12">
         <v>18.100000000000001</v>
@@ -1328,8 +1334,8 @@
       <c r="N13" s="8">
         <v>252.4</v>
       </c>
-      <c r="O13" s="8">
-        <v>2.170542636</v>
+      <c r="O13" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P13">
         <v>19.100000000000001</v>
@@ -1378,8 +1384,8 @@
       <c r="N14" s="8">
         <v>252.8</v>
       </c>
-      <c r="O14" s="8">
-        <v>2.2806339389999999</v>
+      <c r="O14" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P14">
         <v>16.3</v>
@@ -1428,8 +1434,8 @@
       <c r="N15" s="8">
         <v>421</v>
       </c>
-      <c r="O15" s="8">
-        <v>1.0808270680000001</v>
+      <c r="O15" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P15">
         <v>19.2</v>
@@ -1478,8 +1484,8 @@
       <c r="N16" s="8">
         <v>277.3</v>
       </c>
-      <c r="O16" s="8">
-        <v>2.0487460259999999</v>
+      <c r="O16" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P16">
         <v>18.7</v>
@@ -1528,8 +1534,8 @@
       <c r="N17" s="8">
         <v>331.1</v>
       </c>
-      <c r="O17" s="8">
-        <v>3.0193236710000002E-2</v>
+      <c r="O17" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P17">
         <v>19.399999999999999</v>
@@ -1578,8 +1584,8 @@
       <c r="N18" s="8">
         <v>227.1</v>
       </c>
-      <c r="O18" s="8">
-        <v>1.9853258519999999</v>
+      <c r="O18" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P18">
         <v>16.3</v>
@@ -1628,8 +1634,8 @@
       <c r="N19" s="8">
         <v>375.4</v>
       </c>
-      <c r="O19" s="8">
-        <v>0.2126528442</v>
+      <c r="O19" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P19">
         <v>18.899999999999999</v>
@@ -1678,8 +1684,8 @@
       <c r="N20" s="8">
         <v>369.2</v>
       </c>
-      <c r="O20" s="8">
-        <v>0.56558039319999998</v>
+      <c r="O20" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P20">
         <v>18.899999999999999</v>
@@ -1728,8 +1734,8 @@
       <c r="N21" s="8">
         <v>263.7</v>
       </c>
-      <c r="O21" s="8">
-        <v>0.60309084059999996</v>
+      <c r="O21" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P21">
         <v>17.3</v>
@@ -1778,8 +1784,8 @@
       <c r="N22" s="8">
         <v>414.9</v>
       </c>
-      <c r="O22" s="8">
-        <v>0.36023054760000001</v>
+      <c r="O22" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P22">
         <v>18.8</v>
@@ -1828,8 +1834,8 @@
       <c r="N23" s="8">
         <v>389.2</v>
       </c>
-      <c r="O23" s="8">
-        <v>2.3582538890000002</v>
+      <c r="O23" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P23">
         <v>19.5</v>
@@ -1878,8 +1884,8 @@
       <c r="N24" s="8">
         <v>290.8</v>
       </c>
-      <c r="O24" s="8">
-        <v>1.0211027909999999</v>
+      <c r="O24" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P24">
         <v>16.899999999999999</v>
@@ -1928,8 +1934,8 @@
       <c r="N25" s="8">
         <v>466.2</v>
       </c>
-      <c r="O25" s="8">
-        <v>0.25673940950000002</v>
+      <c r="O25" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P25">
         <v>19.600000000000001</v>
@@ -1978,8 +1984,8 @@
       <c r="N26" s="8">
         <v>310.2</v>
       </c>
-      <c r="O26" s="8">
-        <v>1.178719337</v>
+      <c r="O26" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P26">
         <v>19.5</v>
@@ -2028,8 +2034,8 @@
       <c r="N27" s="8">
         <v>460.2</v>
       </c>
-      <c r="O27" s="8">
-        <v>1.0960670539999999</v>
+      <c r="O27" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P27">
         <v>20.7</v>
@@ -2078,8 +2084,8 @@
       <c r="N28" s="8">
         <v>299.2</v>
       </c>
-      <c r="O28" s="8">
-        <v>1.837270341</v>
+      <c r="O28" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P28">
         <v>19.399999999999999</v>
@@ -2128,8 +2134,8 @@
       <c r="N29" s="8">
         <v>430.7</v>
       </c>
-      <c r="O29" s="8">
-        <v>0.5311778291</v>
+      <c r="O29" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P29">
         <v>19.7</v>
@@ -2178,8 +2184,8 @@
       <c r="N30" s="8">
         <v>252.5</v>
       </c>
-      <c r="O30" s="8">
-        <v>1.212832551</v>
+      <c r="O30" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P30">
         <v>17.3</v>
@@ -2228,8 +2234,8 @@
       <c r="N31" s="8">
         <v>355.5</v>
       </c>
-      <c r="O31" s="8">
-        <v>1.5235457059999999</v>
+      <c r="O31" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P31">
         <v>18.8</v>
@@ -2278,8 +2284,8 @@
       <c r="N32" s="8">
         <v>219.4</v>
       </c>
-      <c r="O32" s="8">
-        <v>1.966041108</v>
+      <c r="O32" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P32">
         <v>17.2</v>
@@ -2328,8 +2334,8 @@
       <c r="N33" s="8">
         <v>390.6</v>
       </c>
-      <c r="O33" s="8">
-        <v>1.512859304</v>
+      <c r="O33" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -2378,8 +2384,8 @@
       <c r="N34" s="8">
         <v>358</v>
       </c>
-      <c r="O34" s="8">
-        <v>1.648351648</v>
+      <c r="O34" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P34">
         <v>18.7</v>
@@ -2428,8 +2434,8 @@
       <c r="N35" s="8">
         <v>436.7</v>
       </c>
-      <c r="O35" s="8">
-        <v>1.2661089759999999</v>
+      <c r="O35" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P35">
         <v>18.7</v>
@@ -2478,8 +2484,8 @@
       <c r="N36" s="8">
         <v>261.60000000000002</v>
       </c>
-      <c r="O36" s="8">
-        <v>1.5430937149999999</v>
+      <c r="O36" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P36">
         <v>17.5</v>
@@ -2528,8 +2534,8 @@
       <c r="N37" s="8">
         <v>388.6</v>
       </c>
-      <c r="O37" s="8">
-        <v>0.25667351129999999</v>
+      <c r="O37" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P37">
         <v>18.899999999999999</v>
